--- a/output/out_excel/data_MAE.xlsx
+++ b/output/out_excel/data_MAE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,202 +462,342 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.05430316252512373</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0.04083743178253892</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0.02985328182855347</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0.02611519543464406</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0.0257417072584449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.05101099327168573</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0.04222566409011766</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.03006033987075856</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0.02609033624582818</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0.02685498727930756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.0456578677141986</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0.04260197351571901</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.03179632343896324</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0.02900942953422383</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0.02812110792616703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.04634032603868311</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0.04800625977957269</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.03519697201454389</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0.03976383581449425</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0.03261377024673581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.06107628534135866</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0.05163336801560334</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0.0374765368373921</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0.03729537190108661</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0.03933383640625682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.05171056577579269</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0.0484339580654172</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0.03185365495632872</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0.03297956987511133</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0.03227521355801695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.05033847734304042</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0.04609614281197698</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0.03030801019735235</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0.02787522207827351</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0.02763764297941529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.04917027799609631</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0.0443457790382088</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0.02896958599218999</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0.02253342473961823</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0.02603928452582391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.06003927711140848</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0.04729797249220834</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0.02870661047390187</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0.02027051468591428</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0.02597269621618003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.059980417015566</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04929813945328181</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03007556307408199</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02086557765405746</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02673251804477278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+      <c r="B12" t="n">
+        <v>0.06897001006094676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0514630151325359</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0310567145797522</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02022020390173815</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0279907604114294</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07343659989965524</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05358698258289808</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03192708798189271</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02086161978723179</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02898444086993197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.07544360518539103</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05457931465131858</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0336183350010958</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02170410440067068</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02954039758808987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07655562331260626</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05542566512050919</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03414674373845323</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02174649669759386</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03012429550271611</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.07786828414629293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05573971020265731</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03455889051198094</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02199763412384222</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03044886082979052</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07770140679454834</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0558784152261364</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03480654923108184</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02230987903321045</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03046049070737685</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.07821379268533618</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05598585381315875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03492137496011011</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02227894938874786</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03065764022170571</v>
       </c>
     </row>
   </sheetData>

--- a/output/out_excel/data_MAE.xlsx
+++ b/output/out_excel/data_MAE.xlsx
@@ -465,19 +465,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05430316252512373</v>
+        <v>0.06965798242991458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04083743178253892</v>
+        <v>0.05838643745354499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02985328182855347</v>
+        <v>0.02470440429076765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02611519543464406</v>
+        <v>0.02238195385626012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0257417072584449</v>
+        <v>0.03729000840050865</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05101099327168573</v>
+        <v>0.06662487478125043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04222566409011766</v>
+        <v>0.05892047593726649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03006033987075856</v>
+        <v>0.02667125851262939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02609033624582818</v>
+        <v>0.02200709936861224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02685498727930756</v>
+        <v>0.03600565181035668</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0456578677141986</v>
+        <v>0.05563203081583885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04260197351571901</v>
+        <v>0.05525538879418047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03179632343896324</v>
+        <v>0.03029388678197968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02900942953422383</v>
+        <v>0.02973899039888512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02812110792616703</v>
+        <v>0.03781497346398539</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04634032603868311</v>
+        <v>0.08774816749819409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04800625977957269</v>
+        <v>0.06241552089222512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03519697201454389</v>
+        <v>0.03662967293334959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03976383581449425</v>
+        <v>0.03799231118257523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03261377024673581</v>
+        <v>0.04944292076152362</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06107628534135866</v>
+        <v>0.0883993775006465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05163336801560334</v>
+        <v>0.08548604603941656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0374765368373921</v>
+        <v>0.03951016831172372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03729537190108661</v>
+        <v>0.04483217888356641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03933383640625682</v>
+        <v>0.05465443224694995</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05171056577579269</v>
+        <v>0.07578485615025315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0484339580654172</v>
+        <v>0.09814763071669683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03185365495632872</v>
+        <v>0.03986108376387477</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03297956987511133</v>
+        <v>0.03304782072504283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03227521355801695</v>
+        <v>0.0588356924477206</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05033847734304042</v>
+        <v>0.08145110129797478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04609614281197698</v>
+        <v>0.0757279231707486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03030801019735235</v>
+        <v>0.02868446819530372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02787522207827351</v>
+        <v>0.02544855481092779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02763764297941529</v>
+        <v>0.0492978030126445</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04917027799609631</v>
+        <v>0.06560115852706098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0443457790382088</v>
+        <v>0.06292960986673535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02896958599218999</v>
+        <v>0.02471937779873417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02253342473961823</v>
+        <v>0.02234652618971443</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02603928452582391</v>
+        <v>0.03567285397568205</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06003927711140848</v>
+        <v>0.07828183596336742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04729797249220834</v>
+        <v>0.05682810712890048</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02870661047390187</v>
+        <v>0.02468435939887132</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02027051468591428</v>
+        <v>0.01595103324473795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02597269621618003</v>
+        <v>0.03765077912020958</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0.059980417015566</v>
+        <v>0.08926538937592576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04929813945328181</v>
+        <v>0.05692797099370564</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03007556307408199</v>
+        <v>0.02705983169499722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02086557765405746</v>
+        <v>0.01391552377667354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02673251804477278</v>
+        <v>0.03545974688618096</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06897001006094676</v>
+        <v>0.08971346413468463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0514630151325359</v>
+        <v>0.05560678120822612</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0310567145797522</v>
+        <v>0.02893944091974564</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02022020390173815</v>
+        <v>0.01558929248172013</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0279907604114294</v>
+        <v>0.0368747381765368</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07343659989965524</v>
+        <v>0.09478855953145492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05358698258289808</v>
+        <v>0.05672376912003907</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03192708798189271</v>
+        <v>0.03007283321842252</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02086161978723179</v>
+        <v>0.01727270456705887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02898444086993197</v>
+        <v>0.03755896202336916</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07544360518539103</v>
+        <v>0.08853842659419367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05457931465131858</v>
+        <v>0.05761656478208125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0336183350010958</v>
+        <v>0.03156857817738345</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02170410440067068</v>
+        <v>0.01844083748753854</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02954039758808987</v>
+        <v>0.03745356065612188</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07655562331260626</v>
+        <v>0.09259772046836198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05542566512050919</v>
+        <v>0.05755085259275139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03414674373845323</v>
+        <v>0.03270614913341009</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02174649669759386</v>
+        <v>0.01809749343429279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03012429550271611</v>
+        <v>0.03738662047211606</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07786828414629293</v>
+        <v>0.09284152478025973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05573971020265731</v>
+        <v>0.05737536453395244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03455889051198094</v>
+        <v>0.03282332344044964</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02199763412384222</v>
+        <v>0.0191646522754241</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03044886082979052</v>
+        <v>0.03765938270519531</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07770140679454834</v>
+        <v>0.092479601758826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0558784152261364</v>
+        <v>0.05744103448055111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03480654923108184</v>
+        <v>0.03314485927196179</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02230987903321045</v>
+        <v>0.01866403548609182</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03046049070737685</v>
+        <v>0.03785601096323388</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07821379268533618</v>
+        <v>0.09235694632284203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05598585381315875</v>
+        <v>0.05743081157306191</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03492137496011011</v>
+        <v>0.03315419945604126</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02227894938874786</v>
+        <v>0.01872433524452861</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03065764022170571</v>
+        <v>0.03782205485909784</v>
       </c>
     </row>
   </sheetData>
